--- a/downloaded_files/EPES204_Tutorial-35902.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35902.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد مصطفى محمد سعيد محمد شرويد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Mostafa Mohamed Said Mohamed Shrweed</x:t>
   </x:si>
   <x:si>
     <x:t>1240364</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -662,7 +671,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.230624999999996" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.880625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="48.750625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1288,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.4173447569</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6660571412</x:v>
+        <x:v>45913.4173447569</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.6660571412</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Tutorial-35902.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35902.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Jana Mostafa Al-Sayed Ahmed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم عصمت محمود اسماعيل احمد ابوجبل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem Essmat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240049</x:t>
   </x:si>
   <x:si>
@@ -157,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1240108</x:t>
@@ -362,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -881,7 +899,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6663675116</x:v>
+        <x:v>45921.6597929745</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +931,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.4131214931</x:v>
+        <x:v>45907.6663675116</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.4164679051</x:v>
+        <x:v>45913.4131214931</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.4152017708</x:v>
+        <x:v>45913.4164679051</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6661303588</x:v>
+        <x:v>45913.4152017708</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.4167702199</x:v>
+        <x:v>45907.6661303588</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.4160919792</x:v>
+        <x:v>45913.4167702199</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45913.4160919792</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45907.6665717245</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.415758912</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45913.4143096065</x:v>
+        <x:v>45913.415758912</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.4138625347</x:v>
+        <x:v>45921.5964846875</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.417115625</x:v>
+        <x:v>45913.4143096065</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45919.6032532755</x:v>
+        <x:v>45913.4138625347</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45913.417115625</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.4173447569</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6660571412</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1524,70 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45913.4173447569</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.6660571412</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Tutorial-35902.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35902.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,15 +123,6 @@
     <x:t>Salma Alaa Hussein Elshafey</x:t>
   </x:si>
   <x:si>
-    <x:t>1240412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما محمد حسين محمود ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Mohamed Hussein</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240326</x:t>
   </x:si>
   <x:si>
@@ -247,6 +238,24 @@
   </x:si>
   <x:si>
     <x:t>Nour Mohamed Abdelhamed Abdelrahman Alroba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور منتصر مجدى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nour montasser magdy mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نورالدين عيد محمد فتحى سيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NourEldeen Eid Mohamed Fathi Sayed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240394</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1091,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.4167702199</x:v>
+        <x:v>45913.4160919792</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.4160919792</x:v>
+        <x:v>45907.6665717245</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45913.415758912</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45913.415758912</x:v>
+        <x:v>45921.5964846875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.5964846875</x:v>
+        <x:v>45913.4143096065</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.4143096065</x:v>
+        <x:v>45913.4138625347</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.4138625347</x:v>
+        <x:v>45913.417115625</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.417115625</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45919.6032532755</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45913.4173447569</x:v>
+        <x:v>45927.4255995718</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6660571412</x:v>
+        <x:v>45913.4173447569</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.6660571412</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Tutorial-35902.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35902.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Salma Alaa Hussein Elshafey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما محمد حسين محمود ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Mohamed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1240326</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1100,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.4160919792</x:v>
+        <x:v>45928.4344083333</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45913.4160919792</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45907.6665717245</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.415758912</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.5964846875</x:v>
+        <x:v>45913.415758912</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.4143096065</x:v>
+        <x:v>45921.5964846875</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.4138625347</x:v>
+        <x:v>45913.4143096065</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.417115625</x:v>
+        <x:v>45913.4138625347</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45919.6032532755</x:v>
+        <x:v>45913.417115625</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.4149544329</x:v>
+        <x:v>45919.6032532755</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45913.4149544329</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4255995718</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.4173447569</x:v>
+        <x:v>45927.4255995718</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6660571412</x:v>
+        <x:v>45913.4173447569</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.6660571412</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES204_Tutorial-35902.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35902.xlsx
@@ -123,15 +123,6 @@
     <x:t>Salma Alaa Hussein Elshafey</x:t>
   </x:si>
   <x:si>
-    <x:t>1240412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سما محمد حسين محمود ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sama Mohamed Hussein</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240326</x:t>
   </x:si>
   <x:si>
@@ -139,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Adel Ebrahim Hussein Shoaib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاليه محمود محمد احمد إبراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aliah Mahmoud Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240080</x:t>
@@ -1109,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45928.4344083333</x:v>
+        <x:v>45913.4160919792</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.4160919792</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>

--- a/downloaded_files/EPES204_Tutorial-35902.xlsx
+++ b/downloaded_files/EPES204_Tutorial-35902.xlsx
@@ -174,7 +174,7 @@
     <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+    <x:t>Abdelrahman Sayed Abdelraheem Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1240108</x:t>
